--- a/SDK/build/packListSimple.xlsx
+++ b/SDK/build/packListSimple.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BaiduNetdiskWorkspace\项目开发\奥德赛世界\程序开发\SDK\build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6735CA-CBF3-4E59-BCEC-A91E81E1FE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDEC78D-FE00-4AAD-9586-ACE819BA9D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3290" yWindow="8790" windowWidth="19200" windowHeight="11710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2200" yWindow="3620" windowWidth="19200" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>cpp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>function module - computing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pyd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,39 +103,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>WindowsRegistry.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FolderPoint.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quantumRandom.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegistrySet.hpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">WindowsRegistry.h </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WindowsAPI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function module - compute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FrameLibPoint.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>frame module</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WindowsRegistry.h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FolderPoint.cpp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quantumRandom.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegistrySet.hpp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>API</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">WindowsRegistry.h </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WindowsAPI</t>
+    <t>ALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FrameLibPoint</t>
+  </si>
+  <si>
+    <t>a1b1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -506,47 +521,50 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
         <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -555,7 +573,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -563,16 +581,19 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -580,22 +601,48 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="G5" t="s">
-        <v>16</v>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
